--- a/data/Individuals - MatchStats.xlsx
+++ b/data/Individuals - MatchStats.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/Desktop/DPTO PRACTICAS PROF/WATFORD/watford-player-development/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5BD51F-AB4C-4943-A0E5-D0E54FB4E131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234E1194-A466-8E46-984E-4CBE1BDDBDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="1200" windowWidth="30220" windowHeight="20100" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
+    <workbookView xWindow="4340" yWindow="1200" windowWidth="30220" windowHeight="20100" activeTab="1" xr2:uid="{A2D0A931-C5F6-EF44-8E19-3B892526D62A}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual MatchStats" sheetId="41" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="42" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="423">
   <si>
     <t>Ryan Andrews</t>
   </si>
@@ -1218,13 +1220,100 @@
   </si>
   <si>
     <t>James Abankwah</t>
+  </si>
+  <si>
+    <t>Ediciones de Marzo</t>
+  </si>
+  <si>
+    <t>Cuota 1</t>
+  </si>
+  <si>
+    <t>Cuota 2</t>
+  </si>
+  <si>
+    <t>Cuota 3</t>
+  </si>
+  <si>
+    <t>Cuota 4</t>
+  </si>
+  <si>
+    <t>Cuota 5</t>
+  </si>
+  <si>
+    <t>Cuota 6</t>
+  </si>
+  <si>
+    <t>Cuota 7</t>
+  </si>
+  <si>
+    <t>Cuota 8</t>
+  </si>
+  <si>
+    <t>Cuota 9</t>
+  </si>
+  <si>
+    <t>Cuota 10</t>
+  </si>
+  <si>
+    <t>Cuota 11</t>
+  </si>
+  <si>
+    <t>Cuota 12</t>
+  </si>
+  <si>
+    <t>Cuotas</t>
+  </si>
+  <si>
+    <t>Mes pago de alumno</t>
+  </si>
+  <si>
+    <t>Mes de pago de comision</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Ediciones de Octubre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1246,6 +1335,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1255,7 +1350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1263,17 +1358,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1610,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C506BB17-E22F-DE4C-863D-B0CEDCFDF097}">
   <dimension ref="A1:AN104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
@@ -13360,4 +13475,304 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A23D30B2-1270-B848-A027-B3393FF8E991}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>